--- a/va_facility_data_2025-02-20/Maplewood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Maplewood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Maplewood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Maplewood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6a1a019024924ce7908c148383dd4e98"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R22e03d72ef504f1f8c44724e2394dbbe"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6fe65e25d3594717bd778a4dfcd146e9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rfe69160a3d8b49a9b4e6dc35cfa712ce"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R13d972d7d383481486bb0aa54e63c4a5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6aadbccec6b74522bdcc4d96ffda5a57"/>
   </x:sheets>
 </x:workbook>
 </file>
